--- a/data/trans_orig/P1410-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7215D9F0-B433-4D40-BB81-C17680507C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB00AECF-6257-417D-9231-1907CF83D4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{335D4DE7-67CE-49EF-B0AC-B5853E56F998}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06466B77-1272-4140-AA2C-EBF1BA67641C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -344,55 +344,55 @@
     <t>9,85%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>90,53%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -401,595 +401,595 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>4,4%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF6158-7364-4C11-B747-51B7E26DFA7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579C737F-084E-4F89-B1A8-D033BA7E2D3E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2356,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA06992-C0E1-405B-B94F-10CF94D772A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D0E82B-792C-4315-BDD6-FCEC12E8D748}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,7 +2815,7 @@
         <v>3435</v>
       </c>
       <c r="N10" s="7">
-        <v>3661423</v>
+        <v>3661422</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>134</v>
@@ -2866,7 +2866,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3176,7 +3176,7 @@
         <v>263</v>
       </c>
       <c r="N17" s="7">
-        <v>281066</v>
+        <v>281067</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>159</v>
@@ -3278,7 +3278,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3311,7 +3311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32548F08-A42F-4160-BC3F-60533E6AF88E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249ADEE7-A1DB-4E06-ACB9-131C321E07E4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3707,13 +3707,13 @@
         <v>46120</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -3722,13 +3722,13 @@
         <v>105856</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3743,13 @@
         <v>2016649</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>1867</v>
@@ -3758,13 +3758,13 @@
         <v>1942180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>3762</v>
@@ -3773,13 +3773,13 @@
         <v>3958829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,7 +3853,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3898,13 @@
         <v>9539</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3916,10 +3916,10 @@
         <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3928,13 +3928,13 @@
         <v>19910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3949,13 @@
         <v>537347</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
@@ -3967,10 +3967,10 @@
         <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1009</v>
@@ -3979,13 +3979,13 @@
         <v>1076116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4104,13 @@
         <v>127557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4119,13 +4119,13 @@
         <v>159528</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>266</v>
@@ -4134,13 +4134,13 @@
         <v>287085</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4155,13 @@
         <v>3250061</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7">
         <v>3188</v>
@@ -4170,13 +4170,13 @@
         <v>3372572</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M18" s="7">
         <v>6275</v>
@@ -4185,13 +4185,13 @@
         <v>6622633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AD2694-0655-441C-AC5E-FC6678973AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A38311-C761-4557-AECC-E169540F192A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4283,7 +4283,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4396,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4405,13 +4405,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4426,7 +4426,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4441,13 @@
         <v>73099</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -4456,13 +4456,13 @@
         <v>103562</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>285</v>
@@ -4471,13 +4471,13 @@
         <v>176661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4492,13 @@
         <v>467464</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
         <v>1243</v>
@@ -4507,13 +4507,13 @@
         <v>728979</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>1830</v>
@@ -4522,13 +4522,13 @@
         <v>1196445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,7 +4617,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4626,13 +4626,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4647,13 @@
         <v>85000</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -4662,13 +4662,13 @@
         <v>42973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -4677,13 +4677,13 @@
         <v>127973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4698,13 @@
         <v>2074868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>2844</v>
@@ -4713,13 +4713,13 @@
         <v>2203301</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>4734</v>
@@ -4728,13 +4728,13 @@
         <v>4278169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,7 +4808,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4853,13 @@
         <v>28040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4868,13 +4868,13 @@
         <v>16745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -4883,13 +4883,13 @@
         <v>44785</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4904,13 @@
         <v>644999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>975</v>
@@ -4919,13 +4919,13 @@
         <v>696982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1616</v>
@@ -4934,13 +4934,13 @@
         <v>1341981</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,7 +5029,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5044,7 +5044,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,10 +5077,10 @@
         <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>525</v>
@@ -5089,13 +5089,13 @@
         <v>349419</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1410-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB00AECF-6257-417D-9231-1907CF83D4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEC6DC34-36F5-4C5D-A4C4-C1BAEA02E358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06466B77-1272-4140-AA2C-EBF1BA67641C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03C67D52-F6C0-4563-878A-4733F14DA204}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="321">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>10,01%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>89,99%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,7 +164,7 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>2,64%</t>
@@ -173,786 +173,801 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
     <t>4,86%</t>
   </si>
   <si>
@@ -978,9 +993,6 @@
   </si>
   <si>
     <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
   </si>
   <si>
     <t>95,08%</t>
@@ -1401,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579C737F-084E-4F89-B1A8-D033BA7E2D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF67C29B-31C0-47D0-B3B8-6381306DF888}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1830,7 +1842,7 @@
         <v>1615</v>
       </c>
       <c r="D10" s="7">
-        <v>1661292</v>
+        <v>1661293</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1881,7 +1893,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2024,7 +2036,7 @@
         <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,13 +2051,13 @@
         <v>536594</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>450</v>
@@ -2054,13 +2066,13 @@
         <v>474206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>963</v>
@@ -2069,13 +2081,13 @@
         <v>1010801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2206,13 @@
         <v>150161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -2209,13 +2221,13 @@
         <v>126701</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>277</v>
@@ -2224,13 +2236,13 @@
         <v>276862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,16 +2254,16 @@
         <v>3058</v>
       </c>
       <c r="D18" s="7">
-        <v>3126383</v>
+        <v>3126382</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>3176</v>
@@ -2260,28 +2272,28 @@
         <v>3252497</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>6234</v>
       </c>
       <c r="N18" s="7">
-        <v>6378878</v>
+        <v>6378879</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,7 +2305,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2323,7 +2335,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2337,7 +2349,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D0E82B-792C-4315-BDD6-FCEC12E8D748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFA5091-3193-4E17-A738-4AB2414C7B04}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2373,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2486,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2516,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2543,13 @@
         <v>96014</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7">
         <v>116</v>
@@ -2546,13 +2558,13 @@
         <v>122777</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
         <v>204</v>
@@ -2561,13 +2573,13 @@
         <v>218792</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2594,13 @@
         <v>878629</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7">
         <v>1130</v>
@@ -2597,22 +2609,22 @@
         <v>1213837</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" s="7">
         <v>1950</v>
       </c>
       <c r="N6" s="7">
-        <v>2092465</v>
+        <v>2092464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>116</v>
@@ -2660,7 +2672,7 @@
         <v>2154</v>
       </c>
       <c r="N7" s="7">
-        <v>2311257</v>
+        <v>2311256</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2770,10 +2782,10 @@
         <v>125</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2800,13 @@
         <v>1930683</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>1611</v>
@@ -2803,28 +2815,28 @@
         <v>1730739</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>3435</v>
       </c>
       <c r="N10" s="7">
-        <v>3661422</v>
+        <v>3661423</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2878,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2898,7 +2910,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2928,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2955,13 @@
         <v>3000</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2958,13 +2970,13 @@
         <v>2148</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2973,13 +2985,13 @@
         <v>5148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +3006,13 @@
         <v>478181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>410</v>
@@ -3009,13 +3021,13 @@
         <v>456483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -3024,13 +3036,13 @@
         <v>934664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3161,13 @@
         <v>132288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -3164,28 +3176,28 @@
         <v>148779</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
       </c>
       <c r="N17" s="7">
-        <v>281067</v>
+        <v>281066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3212,13 @@
         <v>3287494</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H18" s="7">
         <v>3151</v>
@@ -3215,13 +3227,13 @@
         <v>3401058</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M18" s="7">
         <v>6230</v>
@@ -3230,13 +3242,13 @@
         <v>6688552</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,7 +3290,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969619</v>
+        <v>6969618</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3292,7 +3304,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3311,7 +3323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249ADEE7-A1DB-4E06-ACB9-131C321E07E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172CC673-BE91-4FF3-AD1F-EA869F5CD32C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3328,7 +3340,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3441,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3456,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3486,13 +3498,13 @@
         <v>58282</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -3501,13 +3513,13 @@
         <v>103038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>150</v>
@@ -3516,13 +3528,13 @@
         <v>161319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3549,13 @@
         <v>696065</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>805</v>
@@ -3552,13 +3564,13 @@
         <v>891622</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>1504</v>
@@ -3567,13 +3579,13 @@
         <v>1587688</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3704,13 @@
         <v>59736</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>41</v>
@@ -3707,13 +3719,13 @@
         <v>46120</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -3722,13 +3734,13 @@
         <v>105856</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3755,13 @@
         <v>2016649</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>1867</v>
@@ -3758,13 +3770,13 @@
         <v>1942180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>3762</v>
@@ -3913,13 +3925,13 @@
         <v>10370</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3928,13 +3940,13 @@
         <v>19910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3961,13 @@
         <v>537347</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
@@ -3964,13 +3976,13 @@
         <v>538770</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1009</v>
@@ -3979,13 +3991,13 @@
         <v>1076116</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4116,13 @@
         <v>127557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4119,13 +4131,13 @@
         <v>159528</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>266</v>
@@ -4134,13 +4146,13 @@
         <v>287085</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4167,13 @@
         <v>3250061</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H18" s="7">
         <v>3188</v>
@@ -4170,13 +4182,13 @@
         <v>3372572</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
         <v>6275</v>
@@ -4185,13 +4197,13 @@
         <v>6622633</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4259,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4266,7 +4278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A38311-C761-4557-AECC-E169540F192A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849B97BE-88CE-4B59-A822-36F3F0062159}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4283,7 +4295,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4396,7 +4408,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4405,13 +4417,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4426,7 +4438,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4453,13 @@
         <v>73099</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -4456,13 +4468,13 @@
         <v>103562</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M5" s="7">
         <v>285</v>
@@ -4471,13 +4483,13 @@
         <v>176661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4504,13 @@
         <v>467464</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H6" s="7">
         <v>1243</v>
@@ -4507,13 +4519,13 @@
         <v>728979</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M6" s="7">
         <v>1830</v>
@@ -4522,13 +4534,13 @@
         <v>1196445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4623,13 @@
         <v>718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4626,7 +4638,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4647,13 +4659,13 @@
         <v>85000</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -4662,13 +4674,13 @@
         <v>42973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -4677,13 +4689,13 @@
         <v>127973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4710,13 @@
         <v>2074868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>2844</v>
@@ -4713,13 +4725,13 @@
         <v>2203301</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>4734</v>
@@ -4728,13 +4740,13 @@
         <v>4278169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4838,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4865,13 @@
         <v>28040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4868,13 +4880,13 @@
         <v>16745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -4883,13 +4895,13 @@
         <v>44785</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4916,13 @@
         <v>644999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>975</v>
@@ -4919,13 +4931,13 @@
         <v>696982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1616</v>
@@ -4934,13 +4946,13 @@
         <v>1341981</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5035,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5038,13 +5050,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5071,13 @@
         <v>186138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>282</v>
@@ -5074,13 +5086,13 @@
         <v>163281</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>525</v>
@@ -5089,13 +5101,13 @@
         <v>349419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5122,13 @@
         <v>3187332</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H18" s="7">
         <v>5062</v>
@@ -5125,13 +5137,13 @@
         <v>3629263</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
         <v>8180</v>
@@ -5140,13 +5152,13 @@
         <v>6816594</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5214,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1410-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E990125-61CC-41CD-BA1D-0DFA410170DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C61F01FD-505C-41F8-A807-B7BC7172CA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9A2B8D93-DA0F-4C89-98C7-124AFBB45CD6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B460EE93-B231-4146-A4CF-9CB417B70E46}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -722,184 +722,196 @@
     <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD41FA5-46C9-46AF-B215-2BDA0F543FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C92D768-3F7D-492A-AD0B-B2F1998334D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,7 +1525,7 @@
         <v>2122</v>
       </c>
       <c r="N5" s="7">
-        <v>2139666</v>
+        <v>2139665</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1564,7 +1576,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1638,7 +1650,7 @@
         <v>1615</v>
       </c>
       <c r="D8" s="7">
-        <v>1661292</v>
+        <v>1661293</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1689,7 +1701,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1948,7 +1960,7 @@
         <v>3058</v>
       </c>
       <c r="D14" s="7">
-        <v>3126383</v>
+        <v>3126382</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1963,7 +1975,7 @@
         <v>3176</v>
       </c>
       <c r="I14" s="7">
-        <v>3252497</v>
+        <v>3252496</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -1978,7 +1990,7 @@
         <v>6234</v>
       </c>
       <c r="N14" s="7">
-        <v>6378878</v>
+        <v>6378879</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1999,7 +2011,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2014,7 +2026,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2029,7 +2041,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2062,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776D166B-D600-4AC8-8B67-518D9A5A97A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF032811-94A9-47C4-B39E-E567A6B187AD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2419,7 +2431,7 @@
         <v>3435</v>
       </c>
       <c r="N8" s="7">
-        <v>3661423</v>
+        <v>3661422</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>120</v>
@@ -2470,7 +2482,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2574,7 +2586,7 @@
         <v>845</v>
       </c>
       <c r="N11" s="7">
-        <v>934664</v>
+        <v>934665</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>136</v>
@@ -2625,7 +2637,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2678,7 +2690,7 @@
         <v>263</v>
       </c>
       <c r="N13" s="7">
-        <v>281066</v>
+        <v>281067</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>145</v>
@@ -2780,7 +2792,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2813,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDFF33B-23F1-4592-84E8-267E006957C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C33F1F-8FF3-4887-80FD-83C86EABBBFF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,7 +3337,7 @@
         <v>1009</v>
       </c>
       <c r="N11" s="7">
-        <v>1076116</v>
+        <v>1076117</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>207</v>
@@ -3376,7 +3388,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3564,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3E4428-7A14-475A-8F3C-BB08002760FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B281C97C-BF62-4BF4-A479-A1F64C9FBBBE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3685,7 +3697,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="7">
-        <v>73099</v>
+        <v>68717</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3700,7 +3712,7 @@
         <v>182</v>
       </c>
       <c r="I4" s="7">
-        <v>103562</v>
+        <v>92648</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3715,7 +3727,7 @@
         <v>285</v>
       </c>
       <c r="N4" s="7">
-        <v>176661</v>
+        <v>161365</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3736,7 +3748,7 @@
         <v>587</v>
       </c>
       <c r="D5" s="7">
-        <v>467464</v>
+        <v>445225</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3751,7 +3763,7 @@
         <v>1243</v>
       </c>
       <c r="I5" s="7">
-        <v>728980</v>
+        <v>659926</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -3766,7 +3778,7 @@
         <v>1830</v>
       </c>
       <c r="N5" s="7">
-        <v>1196445</v>
+        <v>1105151</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -3787,7 +3799,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3802,7 +3814,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>832542</v>
+        <v>752574</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3817,7 +3829,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1373106</v>
+        <v>1266516</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3840,7 +3852,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="7">
-        <v>85000</v>
+        <v>81159</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3849,37 +3861,37 @@
         <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>42973</v>
+        <v>39144</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
       </c>
       <c r="N7" s="7">
-        <v>127973</v>
+        <v>120303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,46 +3903,46 @@
         <v>1890</v>
       </c>
       <c r="D8" s="7">
-        <v>2074868</v>
+        <v>2207129</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>2844</v>
       </c>
       <c r="I8" s="7">
-        <v>2203301</v>
+        <v>2195716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>4734</v>
       </c>
       <c r="N8" s="7">
-        <v>4278169</v>
+        <v>4402845</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,7 +3954,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2159868</v>
+        <v>2288288</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3957,7 +3969,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2246274</v>
+        <v>2234860</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3972,7 +3984,7 @@
         <v>4906</v>
       </c>
       <c r="N9" s="7">
-        <v>4406142</v>
+        <v>4523148</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3995,46 +4007,46 @@
         <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>28040</v>
+        <v>26508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>16745</v>
+        <v>15802</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>44785</v>
+        <v>42311</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,43 +4058,43 @@
         <v>641</v>
       </c>
       <c r="D11" s="7">
-        <v>644999</v>
+        <v>620115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>975</v>
       </c>
       <c r="I11" s="7">
-        <v>696982</v>
+        <v>644501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>1616</v>
       </c>
       <c r="N11" s="7">
-        <v>1341981</v>
+        <v>1264616</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>272</v>
@@ -4097,7 +4109,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4112,7 +4124,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713727</v>
+        <v>660303</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4127,7 +4139,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386766</v>
+        <v>1306927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4150,7 +4162,7 @@
         <v>243</v>
       </c>
       <c r="D13" s="7">
-        <v>186138</v>
+        <v>176383</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>273</v>
@@ -4165,31 +4177,31 @@
         <v>282</v>
       </c>
       <c r="I13" s="7">
-        <v>163281</v>
+        <v>147595</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>525</v>
       </c>
       <c r="N13" s="7">
-        <v>349419</v>
+        <v>323978</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,46 +4213,46 @@
         <v>3118</v>
       </c>
       <c r="D14" s="7">
-        <v>3187332</v>
+        <v>3272470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>5062</v>
       </c>
       <c r="I14" s="7">
-        <v>3629263</v>
+        <v>3500142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>8180</v>
       </c>
       <c r="N14" s="7">
-        <v>6816595</v>
+        <v>6772612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +4264,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3373470</v>
+        <v>3448853</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4267,7 +4279,7 @@
         <v>5344</v>
       </c>
       <c r="I15" s="7">
-        <v>3792544</v>
+        <v>3647737</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4282,7 +4294,7 @@
         <v>8705</v>
       </c>
       <c r="N15" s="7">
-        <v>7166014</v>
+        <v>7096590</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
